--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_6_5.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_6_5.xlsx
@@ -478,776 +478,776 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_0</t>
+          <t>model_6_5_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3353703829575784</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1723236691864223</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.286546990682506</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2278705744312793</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7355490922927856</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8305639624595642</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7144161462783813</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7759062051773071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_22</t>
+          <t>model_6_5_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3354439741309539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1734385344459174</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2867116985065469</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2285372800963296</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.735467791557312</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8294452428817749</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7142511606216431</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7752362489700317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_21</t>
+          <t>model_6_5_10</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3355978892247333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.180900176682678</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2852391853402723</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2317914881687008</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7352973222732544</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8219575881958008</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7157256603240967</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7719660997390747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_20</t>
+          <t>model_6_5_16</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3356623481599501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1780290613492953</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2862204061003548</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2307336396793654</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7352259755134583</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8248386979103088</v>
       </c>
       <c r="H5" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7147431373596191</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.773029088973999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_19</t>
+          <t>model_6_5_17</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3357136845317279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1779445222907166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2865070016727838</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2308235130114579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7351691126823425</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.824923574924469</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7144562005996704</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7729387879371643</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_18</t>
+          <t>model_6_5_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.33572671149866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1809835590513745</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2856091793408669</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2320091218443801</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7351547479629517</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8218739032745361</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7153552770614624</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7717474102973938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_17</t>
+          <t>model_6_5_22</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3357437285213457</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1756800449111081</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2876110376688084</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2301440566335434</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7351359724998474</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8271958827972412</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7133506536483765</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7736216187477112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_16</t>
+          <t>model_6_5_21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.335760580704252</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1766684821441411</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2869958160824779</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2303778028670567</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7351173162460327</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8262040019035339</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7139666676521301</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7733866572380066</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_15</t>
+          <t>model_6_5_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3357663582638823</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1822943824008885</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2855854130472314</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2326910070594308</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7351108193397522</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.820558488368988</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.715378999710083</v>
       </c>
       <c r="I10" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7710621953010559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_14</t>
+          <t>model_6_5_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3357695337580935</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1821558736373831</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.285588008820734</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.232618879502688</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.735107421875</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8206974864006042</v>
       </c>
       <c r="H11" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7153764367103577</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7711346745491028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_13</t>
+          <t>model_6_5_7</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3357759438952828</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.182699101352487</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2856806886785053</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2329493763937521</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7351003289222717</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8201524019241333</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7152836322784424</v>
       </c>
       <c r="I12" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7708025574684143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_23</t>
+          <t>model_6_5_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3357816076296807</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1807690312005926</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2858246372246326</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2319966677788491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7350940704345703</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8220891356468201</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7151395082473755</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7717599272727966</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_12</t>
+          <t>model_6_5_20</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3357858268454584</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1769271906691872</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2870330599048813</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2305323107708583</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7350893616676331</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8259443640708923</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7139294147491455</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7732314467430115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_10</t>
+          <t>model_6_5_19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3357870202439798</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1771751652631153</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2869753402933568</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2306363512158406</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.735088050365448</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8256955742835999</v>
       </c>
       <c r="H15" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7139872312545776</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7731269001960754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_9</t>
+          <t>model_6_5_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3358187766295931</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1775321266712424</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2870851861368436</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2308764884204964</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7350529432296753</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8253373503684998</v>
       </c>
       <c r="H16" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7138772010803223</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7728855609893799</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_8</t>
+          <t>model_6_5_12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3358204069446715</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1810714297274236</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2859404481620518</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2322109695685209</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7350510954856873</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8217856884002686</v>
       </c>
       <c r="H17" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7150235176086426</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7715445756912231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_7</t>
+          <t>model_6_5_15</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.335887203879186</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1806918506283303</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2862224761534649</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2321422281524419</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7349771857261658</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8221666812896729</v>
       </c>
       <c r="H18" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7147411108016968</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.771613597869873</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_6</t>
+          <t>model_6_5_14</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3358880269431532</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1807168445588673</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2862210144659229</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2321549912511044</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7349762916564941</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8221415281295776</v>
       </c>
       <c r="H19" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7147425413131714</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7716007828712463</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_5</t>
+          <t>model_6_5_0</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.335956188912967</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.2200996527014069</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.302626316535718</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2606685087307518</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7349008321762085</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.7826213836669922</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.6983150839805603</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7429478168487549</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_4</t>
+          <t>model_6_5_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3360093213602412</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1866228201690906</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2859805505309602</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2351646082839467</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7348420023918152</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.816214919090271</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.714983344078064</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7685765027999878</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_3</t>
+          <t>model_6_5_6</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3360494293516049</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.1854522602945878</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2864963282162041</v>
       </c>
       <c r="E22" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2347877084958594</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7347975969314575</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8173896074295044</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7144668102264404</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7689552307128906</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_2</t>
+          <t>model_6_5_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3362890096266673</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.2025401667752621</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2860085317807763</v>
       </c>
       <c r="E23" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2435925931780798</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7345324754714966</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8002421259880066</v>
       </c>
       <c r="H23" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7149553298950195</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7601072192192078</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_1</t>
+          <t>model_6_5_4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3363109760579339</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.2025964571815095</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2860067610307773</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2436216985589176</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7345081567764282</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.8001855611801147</v>
       </c>
       <c r="H24" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.714957058429718</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.760077953338623</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_11</t>
+          <t>model_6_5_2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3364755146737628</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.2036063053894963</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.2865130388891459</v>
       </c>
       <c r="E25" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2443928467154106</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7343260645866394</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.7991722226142883</v>
       </c>
       <c r="H25" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7144501209259033</v>
       </c>
       <c r="I25" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.759303092956543</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_24</t>
+          <t>model_6_5_1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.8531364041951562</v>
+        <v>0.3364814299372867</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4795184908156751</v>
+        <v>0.2037644400486615</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9765511109352982</v>
+        <v>0.289184319402312</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7730335589155077</v>
+        <v>0.2457293048741627</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1625347137451172</v>
+        <v>0.7343195676803589</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4241808652877808</v>
+        <v>0.7990134358406067</v>
       </c>
       <c r="H26" t="n">
-        <v>0.03065000660717487</v>
+        <v>0.7117752432823181</v>
       </c>
       <c r="I26" t="n">
-        <v>0.2389900237321854</v>
+        <v>0.7579600811004639</v>
       </c>
     </row>
   </sheetData>
